--- a/data/577 Projects/2012-2013/file list.xlsx
+++ b/data/577 Projects/2012-2013/file list.xlsx
@@ -37,7 +37,7 @@
     <t>~\577 projects\fall2015\projects\team01\team01b\Development\RCP</t>
   </si>
   <si>
-    <t>Example.</t>
+    <t>This is an exampke for the things to fill. The URL should be point to the folder where the LCP, SSAD, OCD are found.</t>
   </si>
 </sst>
 </file>
@@ -411,13 +411,13 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="4" max="4" width="55.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">

--- a/data/577 Projects/2012-2013/file list.xlsx
+++ b/data/577 Projects/2012-2013/file list.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>PROJ</t>
   </si>
@@ -89,12 +89,45 @@
   </si>
   <si>
     <t>XL 2</t>
+  </si>
+  <si>
+    <t>Art_Crafts_Website</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Improvementon_on_VITA_website</t>
+  </si>
+  <si>
+    <t>Pediatric_Trauma_Society_Research_Investigator_Databank _PTS_RID</t>
+  </si>
+  <si>
+    <t>Web_based_product_configurator_and_data_service_system</t>
+  </si>
+  <si>
+    <t>Web_Media_Modernization_2012</t>
+  </si>
+  <si>
+    <t>XL_2</t>
+  </si>
+  <si>
+    <t>Student_Scheduling_System</t>
+  </si>
+  <si>
+    <t>United_Direct_Marketing</t>
+  </si>
+  <si>
+    <t>Mission Science Information and Data Management System 2.0</t>
+  </si>
+  <si>
+    <t>Mission_Science_Information_and_Data_Management_System_2.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -242,23 +275,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -294,23 +310,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -487,20 +486,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.44140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="42" style="4" customWidth="1"/>
-    <col min="4" max="4" width="55.6640625" customWidth="1"/>
+    <col min="2" max="3" width="28.44140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="42" style="4" customWidth="1"/>
+    <col min="5" max="5" width="55.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -508,52 +507,67 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -561,13 +575,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -577,11 +594,14 @@
       <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -589,13 +609,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -603,13 +626,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -617,13 +643,16 @@
         <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -631,13 +660,16 @@
         <v>5</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -645,9 +677,12 @@
         <v>4</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>20</v>
       </c>
     </row>

--- a/data/577 Projects/2012-2013/file list.xlsx
+++ b/data/577 Projects/2012-2013/file list.xlsx
@@ -489,7 +489,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/577 Projects/2012-2013/file list.xlsx
+++ b/data/577 Projects/2012-2013/file list.xlsx
@@ -489,7 +489,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/577 Projects/2012-2013/file list.xlsx
+++ b/data/577 Projects/2012-2013/file list.xlsx
@@ -489,7 +489,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/577 Projects/2012-2013/file list.xlsx
+++ b/data/577 Projects/2012-2013/file list.xlsx
@@ -492,14 +492,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="28.44140625" style="4" customWidth="1"/>
+    <col min="2" max="3" width="28.42578125" style="4" customWidth="1"/>
     <col min="4" max="4" width="42" style="4" customWidth="1"/>
-    <col min="5" max="5" width="55.6640625" customWidth="1"/>
+    <col min="5" max="5" width="55.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -516,7 +516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -533,7 +533,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -550,7 +550,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -567,7 +567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -584,7 +584,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -601,7 +601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -618,7 +618,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -635,7 +635,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -652,7 +652,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -669,7 +669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
